--- a/紀錄.xlsx
+++ b/紀錄.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\202510Mobile\yaosuleemobile_clean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017487E4-A155-422E-B4B9-C16CD3735D3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADBBBE7-55DA-4622-9E76-6FB79F8FD480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4905" yWindow="570" windowWidth="21615" windowHeight="14205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11610" yWindow="30" windowWidth="15330" windowHeight="14805" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="儲存 key.jks" sheetId="1" r:id="rId1"/>
     <sheet name="工作表2" sheetId="2" r:id="rId2"/>
+    <sheet name="工作表3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>輸入金鑰庫密碼</t>
   </si>
@@ -86,28 +87,92 @@
     <t>8 位元 RSA 金鑰組以及自我簽署憑證 (SHA384withRSA)</t>
   </si>
   <si>
+    <t>AndroidMainfest.xml</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainActivity.kt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\202510Mobile\yaosuleemobile_clean\android\app\src\main</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\202510Mobile\yaosuleemobile_clean\android\app\build.gradle.kts</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\202510Mobile\yaosuleemobile_clean\android\app\src\main\kotlin\com\yaosulee</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\202510Mobile\yaosuleemobile_clean\lib\main.dart</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>main.dart</t>
+  </si>
+  <si>
+    <t>build.gradle.kts</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>[儲存 key.jks]</t>
-  </si>
-  <si>
-    <t>// android/app/build.gradle.kts</t>
-  </si>
-  <si>
-    <t>lib/main.dart</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AndroidMainfest.xml</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MainActivity.kt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>E:\202510Mobile\yaosuleemobile_clean\android\app\src\main</t>
-  </si>
-  <si>
-    <t>E:\202510Mobile\yaosuleemobile_clean\android\app\src\main\kotlin\com\yaosulee</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>再把 App 名稱改成「YaosuLee」：</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">打開 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>android/app/src/main/AndroidManifest.xml</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">，在 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;application ...&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 加上：</t>
+    </r>
+  </si>
+  <si>
+    <t>android:label="YaosuLee"</t>
   </si>
 </sst>
 </file>
@@ -156,13 +221,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -446,8 +514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -464,7 +532,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -540,41 +608,64 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F916F7C-3E6A-4CF9-A8BF-DCD8C0B15BC4}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="L4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="L6" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+      <c r="C7" t="s">
         <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -582,4 +673,17 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9DB3413-0C04-4CA8-8DCE-E50FBC1ECA75}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/紀錄.xlsx
+++ b/紀錄.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\202510Mobile\yaosuleemobile_clean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADBBBE7-55DA-4622-9E76-6FB79F8FD480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE22AED-ADF1-40A4-8F4C-2C8939A86C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11610" yWindow="30" windowWidth="15330" windowHeight="14805" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7995" yWindow="1290" windowWidth="22470" windowHeight="13275" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="儲存 key.jks" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>輸入金鑰庫密碼</t>
   </si>
@@ -173,6 +173,13 @@
   </si>
   <si>
     <t>android:label="YaosuLee"</t>
+  </si>
+  <si>
+    <t>pubspec.yaml</t>
+  </si>
+  <si>
+    <t>版次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -515,7 +522,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -608,10 +615,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F916F7C-3E6A-4CF9-A8BF-DCD8C0B15BC4}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -668,6 +675,14 @@
         <v>21</v>
       </c>
     </row>
+    <row r="9" spans="1:12">
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -679,11 +694,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9DB3413-0C04-4CA8-8DCE-E50FBC1ECA75}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>